--- a/Interfaccia Gara PC/Sistema Interfaccia ULTIMO/Ordine_Volo.xlsx
+++ b/Interfaccia Gara PC/Sistema Interfaccia ULTIMO/Ordine_Volo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Desktop\Sistema Interfaccia con Format Aposto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia ULTIMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB47AD6-C673-4079-8A18-D67BB29341FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668990ED-9D33-4827-AEEF-F8821B3A638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D7693801-22DF-4A3B-ADC2-A51738D2A445}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{42A3F2CA-0FA1-4B00-A1C9-A20811729079}"/>
   </bookViews>
   <sheets>
     <sheet name="Q500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="71">
   <si>
     <t>Q500</t>
   </si>
@@ -67,12 +67,12 @@
     <t>Manche N:1</t>
   </si>
   <si>
+    <t>Marcel Hiusman</t>
+  </si>
+  <si>
     <t>Riccardo Tosi</t>
   </si>
   <si>
-    <t>Giancarlo Giulianetti</t>
-  </si>
-  <si>
     <t>Franco Cicoria</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Ba Lu</t>
   </si>
   <si>
-    <t>Marcel Hiusman</t>
+    <t>Andrea Tosi</t>
   </si>
   <si>
     <t>Matteo Tomassini</t>
@@ -94,9 +94,6 @@
     <t>Renzo Razzi</t>
   </si>
   <si>
-    <t>Andrea Tosi</t>
-  </si>
-  <si>
     <t>Luca Fochesato</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
     <t>Manche N:2</t>
   </si>
   <si>
+    <t>Manche N:3</t>
+  </si>
+  <si>
+    <t>Leon Huer</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>Michele Pernigotti</t>
-  </si>
-  <si>
-    <t>Leon Huer</t>
   </si>
   <si>
     <t>Dan Cou</t>
@@ -367,7 +367,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DDF43B15-AED0-439D-8AA0-650E1518B603}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{600670E2-9DF8-4B0D-800A-6231F641783A}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -676,8 +676,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E7B926-8BDA-43D2-8FE3-7E85C393F061}">
-  <dimension ref="A1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217994CE-599D-42D2-A99D-572F3E6F2E24}">
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1002,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1017,12 +1017,12 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1053,17 +1053,17 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1073,12 +1073,12 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -1109,32 +1109,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1209,12 +1209,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1265,12 +1265,12 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1280,12 +1280,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1331,22 +1331,22 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -1377,22 +1377,22 @@
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1428,10 +1428,307 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>3</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="98">
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
     <mergeCell ref="N28:P29"/>
     <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="A30:S31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D29"/>
     <mergeCell ref="E28:G29"/>
@@ -1505,8 +1802,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6BA9B-3644-4DAE-8CED-94C1ABDF7520}">
-  <dimension ref="A1:S57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31BBC41-60C8-4F48-98AA-C9C4BC02C2DF}">
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,32 +2067,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -1826,32 +2123,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1882,32 +2179,32 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -1938,32 +2235,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1994,32 +2291,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2050,32 +2347,32 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2106,32 +2403,32 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2162,32 +2459,32 @@
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2218,32 +2515,32 @@
         <v>9</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2274,12 +2571,12 @@
         <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2289,17 +2586,17 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -2335,7 +2632,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2345,17 +2642,17 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -2383,7 +2680,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2430,32 +2727,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -2486,32 +2783,32 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -2542,32 +2839,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -2598,32 +2895,32 @@
         <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -2654,32 +2951,32 @@
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -2710,32 +3007,32 @@
         <v>6</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -2766,32 +3063,32 @@
         <v>7</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -2822,32 +3119,32 @@
         <v>8</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -2878,22 +3175,22 @@
         <v>9</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -2903,7 +3200,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -2934,22 +3231,22 @@
         <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -2959,7 +3256,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -2990,12 +3287,12 @@
         <v>11</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3005,17 +3302,17 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -3041,8 +3338,668 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
     </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>3</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>5</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>7</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>9</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>11</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="245">
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="B6:G7"/>
     <mergeCell ref="H6:M7"/>
@@ -3196,6 +4153,14 @@
     <mergeCell ref="E50:G51"/>
     <mergeCell ref="H50:J51"/>
     <mergeCell ref="K50:M51"/>
+    <mergeCell ref="A58:S59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="E60:G61"/>
+    <mergeCell ref="H60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:P61"/>
+    <mergeCell ref="Q60:S61"/>
     <mergeCell ref="N54:P55"/>
     <mergeCell ref="Q54:S55"/>
     <mergeCell ref="A56:A57"/>
@@ -3210,14 +4175,84 @@
     <mergeCell ref="E54:G55"/>
     <mergeCell ref="H54:J55"/>
     <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N62:P63"/>
+    <mergeCell ref="Q62:S63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="H64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="N64:P65"/>
+    <mergeCell ref="Q64:S65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:D63"/>
+    <mergeCell ref="E62:G63"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N66:P67"/>
+    <mergeCell ref="Q66:S67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:D69"/>
+    <mergeCell ref="E68:G69"/>
+    <mergeCell ref="H68:J69"/>
+    <mergeCell ref="K68:M69"/>
+    <mergeCell ref="N68:P69"/>
+    <mergeCell ref="Q68:S69"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="E66:G67"/>
+    <mergeCell ref="H66:J67"/>
+    <mergeCell ref="K66:M67"/>
+    <mergeCell ref="N70:P71"/>
+    <mergeCell ref="Q70:S71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:D73"/>
+    <mergeCell ref="E72:G73"/>
+    <mergeCell ref="H72:J73"/>
+    <mergeCell ref="K72:M73"/>
+    <mergeCell ref="N72:P73"/>
+    <mergeCell ref="Q72:S73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="E70:G71"/>
+    <mergeCell ref="H70:J71"/>
+    <mergeCell ref="K70:M71"/>
+    <mergeCell ref="N74:P75"/>
+    <mergeCell ref="Q74:S75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:D77"/>
+    <mergeCell ref="E76:G77"/>
+    <mergeCell ref="H76:J77"/>
+    <mergeCell ref="K76:M77"/>
+    <mergeCell ref="N76:P77"/>
+    <mergeCell ref="Q76:S77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:D75"/>
+    <mergeCell ref="E74:G75"/>
+    <mergeCell ref="H74:J75"/>
+    <mergeCell ref="K74:M75"/>
+    <mergeCell ref="N78:P79"/>
+    <mergeCell ref="Q78:S79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:D81"/>
+    <mergeCell ref="E80:G81"/>
+    <mergeCell ref="H80:J81"/>
+    <mergeCell ref="K80:M81"/>
+    <mergeCell ref="N80:P81"/>
+    <mergeCell ref="Q80:S81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:D79"/>
+    <mergeCell ref="E78:G79"/>
+    <mergeCell ref="H78:J79"/>
+    <mergeCell ref="K78:M79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F3B736-0A69-44D1-B2A1-F2406C6051A3}">
-  <dimension ref="A1:S33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA5FB2-7FFD-4162-8A7A-A99AC87042F9}">
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S5"/>
@@ -3483,12 +4518,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3498,7 +4533,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -3508,7 +4543,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -3544,17 +4579,17 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3564,7 +4599,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -3600,7 +4635,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -3610,7 +4645,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -3620,7 +4655,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -3656,7 +4691,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -3666,17 +4701,17 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -3712,27 +4747,27 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -3760,7 +4795,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3812,27 +4847,27 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -3863,12 +4898,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3878,7 +4913,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -3888,7 +4923,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3919,12 +4954,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -3934,7 +4969,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -3944,7 +4979,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3980,7 +5015,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -3990,17 +5025,17 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -4036,7 +5071,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -4046,7 +5081,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -4056,7 +5091,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -4082,8 +5117,368 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="119">
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="Q42:S43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="K44:M45"/>
+    <mergeCell ref="N44:P45"/>
+    <mergeCell ref="Q44:S45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:M43"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="N40:P41"/>
+    <mergeCell ref="Q40:S41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="A34:S35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q36:S37"/>
     <mergeCell ref="N30:P31"/>
     <mergeCell ref="Q30:S31"/>
     <mergeCell ref="A32:A33"/>

--- a/Interfaccia Gara PC/Sistema Interfaccia ULTIMO/Ordine_Volo.xlsx
+++ b/Interfaccia Gara PC/Sistema Interfaccia ULTIMO/Ordine_Volo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia ULTIMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668990ED-9D33-4827-AEEF-F8821B3A638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149F324-8F9B-49F9-90A6-1E0BF59E0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{42A3F2CA-0FA1-4B00-A1C9-A20811729079}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0C065ED2-637E-475F-90DC-720DEA73AD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Q500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="73">
   <si>
     <t>Q500</t>
   </si>
@@ -67,33 +67,36 @@
     <t>Manche N:1</t>
   </si>
   <si>
+    <t>Riccardo Tosi</t>
+  </si>
+  <si>
+    <t>Giancarlo Giulianetti</t>
+  </si>
+  <si>
+    <t>Franco Cicoria</t>
+  </si>
+  <si>
+    <t>Massimo Cicoria</t>
+  </si>
+  <si>
+    <t>Bilu Asual</t>
+  </si>
+  <si>
+    <t>Ba Lu</t>
+  </si>
+  <si>
     <t>Marcel Hiusman</t>
   </si>
   <si>
-    <t>Riccardo Tosi</t>
-  </si>
-  <si>
-    <t>Franco Cicoria</t>
-  </si>
-  <si>
-    <t>Massimo Cicoria</t>
-  </si>
-  <si>
-    <t>Bilu Asual</t>
-  </si>
-  <si>
-    <t>Ba Lu</t>
+    <t>Matteo Tomassini</t>
+  </si>
+  <si>
+    <t>Renzo Razzi</t>
   </si>
   <si>
     <t>Andrea Tosi</t>
   </si>
   <si>
-    <t>Matteo Tomassini</t>
-  </si>
-  <si>
-    <t>Renzo Razzi</t>
-  </si>
-  <si>
     <t>Luca Fochesato</t>
   </si>
   <si>
@@ -130,94 +133,97 @@
     <t>Manche N:3</t>
   </si>
   <si>
+    <t>Manche N:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mattias Jorge</t>
+  </si>
+  <si>
+    <t>Dan Cou</t>
+  </si>
+  <si>
+    <t>Gilles Degruelles</t>
+  </si>
+  <si>
+    <t>Tomas Adrlik</t>
+  </si>
+  <si>
+    <t>Ray Vd Clock</t>
+  </si>
+  <si>
+    <t>Christian Wolf</t>
+  </si>
+  <si>
+    <t>Nicolas Yeps</t>
+  </si>
+  <si>
+    <t>Vincent Partenotte</t>
+  </si>
+  <si>
+    <t>Roman Pojer</t>
+  </si>
+  <si>
+    <t>Antonio Tosi</t>
+  </si>
+  <si>
+    <t>Robbert Vd Bosch</t>
+  </si>
+  <si>
+    <t>Jan Petr</t>
+  </si>
+  <si>
+    <t>Roberto Cavallaro</t>
+  </si>
+  <si>
+    <t>Rob Metmekeier</t>
+  </si>
+  <si>
+    <t>Jiri Klein</t>
+  </si>
+  <si>
+    <t>Paolo Mucedola</t>
+  </si>
+  <si>
+    <t>Herv Houdin</t>
+  </si>
+  <si>
+    <t>Thomas Zivnri</t>
+  </si>
+  <si>
+    <t>Mattia Canevari</t>
+  </si>
+  <si>
+    <t>Gerald Coors</t>
+  </si>
+  <si>
+    <t>Ans Joachim Shaller</t>
+  </si>
+  <si>
+    <t>Mauro Fagioli</t>
+  </si>
+  <si>
+    <t>Alessandro Agrusa</t>
+  </si>
+  <si>
+    <t>Beatriz Yeps</t>
+  </si>
+  <si>
+    <t>------- -------</t>
+  </si>
+  <si>
+    <t>+++++++ +++++++</t>
+  </si>
+  <si>
     <t>Leon Huer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tomas Adrlik</t>
-  </si>
-  <si>
-    <t>Nicolas Yeps</t>
-  </si>
-  <si>
-    <t>Gilles Degruelles</t>
-  </si>
-  <si>
-    <t>Christian Wolf</t>
-  </si>
-  <si>
-    <t>Antonio Tosi</t>
-  </si>
-  <si>
-    <t>Ray Vd Clock</t>
-  </si>
-  <si>
-    <t>Roman Pojer</t>
-  </si>
-  <si>
-    <t>Roberto Cavallaro</t>
-  </si>
-  <si>
-    <t>Vincent Partenotte</t>
-  </si>
-  <si>
-    <t>Jan Petr</t>
-  </si>
-  <si>
-    <t>Paolo Mucedola</t>
-  </si>
-  <si>
-    <t>Robbert Vd Bosch</t>
-  </si>
-  <si>
-    <t>Jiri Klein</t>
-  </si>
-  <si>
-    <t>Mattia Canevari</t>
-  </si>
-  <si>
-    <t>Rob Metmekeier</t>
-  </si>
-  <si>
-    <t>Thomas Zivnri</t>
-  </si>
-  <si>
-    <t>Mauro Fagioli</t>
-  </si>
-  <si>
-    <t>Herv Houdin</t>
-  </si>
-  <si>
-    <t>Ans Joachim Shaller</t>
-  </si>
-  <si>
-    <t>------- -------</t>
-  </si>
-  <si>
-    <t>+++++++ +++++++</t>
-  </si>
-  <si>
-    <t>Gerald Coors</t>
-  </si>
-  <si>
-    <t>Beatriz Yeps</t>
+    <t>Michele Pernigotti</t>
   </si>
   <si>
     <t>\\\\\\\ \\\\\\\</t>
-  </si>
-  <si>
-    <t>Alessandro Agrusa</t>
-  </si>
-  <si>
-    <t>Michele Pernigotti</t>
-  </si>
-  <si>
-    <t>Dan Cou</t>
-  </si>
-  <si>
-    <t>Mattias Jorge</t>
   </si>
   <si>
     <t>Bram Lentjs</t>
@@ -340,9 +346,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +356,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -367,7 +373,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{600670E2-9DF8-4B0D-800A-6231F641783A}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EC414913-5CFD-4E15-910E-50A33F05669F}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -676,221 +682,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217994CE-599D-42D2-A99D-572F3E6F2E24}">
-  <dimension ref="A1:S39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C6809-01A2-475B-B0C2-01B31F28CCB1}">
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1002,7 +1008,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1017,12 +1023,12 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1053,17 +1059,17 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1073,12 +1079,12 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -1109,32 +1115,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1209,12 +1215,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1265,12 +1271,12 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1280,12 +1286,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1331,22 +1337,22 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -1377,22 +1383,22 @@
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1477,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1487,12 +1493,12 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -1533,12 +1539,12 @@
         <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1558,7 +1564,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -1599,22 +1605,22 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -1655,22 +1661,22 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -1696,10 +1702,307 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>2</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>4</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="127">
+    <mergeCell ref="N48:P49"/>
+    <mergeCell ref="Q48:S49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="K48:M49"/>
+    <mergeCell ref="N44:P45"/>
+    <mergeCell ref="Q44:S45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="K46:M47"/>
+    <mergeCell ref="N46:P47"/>
+    <mergeCell ref="Q46:S47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="K44:M45"/>
     <mergeCell ref="N38:P39"/>
     <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="A40:S41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="Q42:S43"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -1802,221 +2105,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31BBC41-60C8-4F48-98AA-C9C4BC02C2DF}">
-  <dimension ref="A1:S81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A810D-FD68-47E7-B5C9-2BFF1AB5A8D9}">
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2067,32 +2370,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -2123,32 +2426,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2184,7 +2487,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2194,7 +2497,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2204,7 +2507,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -2240,7 +2543,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2250,7 +2553,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2260,7 +2563,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -2296,7 +2599,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2306,7 +2609,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -2316,7 +2619,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2352,7 +2655,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2362,7 +2665,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -2372,7 +2675,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2408,7 +2711,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2418,7 +2721,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2428,7 +2731,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2459,32 +2762,32 @@
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2515,32 +2818,32 @@
         <v>9</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2571,32 +2874,32 @@
         <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -2623,136 +2926,136 @@
       <c r="S31" s="7"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>11</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -2780,35 +3083,35 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -2836,35 +3139,35 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -2892,35 +3195,35 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -2948,35 +3251,35 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -3004,35 +3307,35 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -3060,35 +3363,35 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -3116,35 +3419,35 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -3172,35 +3475,35 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -3227,92 +3530,80 @@
       <c r="S53" s="7"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>10</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -3339,80 +3630,92 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="A58" s="7">
+        <v>2</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
@@ -3440,35 +3743,35 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -3496,35 +3799,35 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -3552,35 +3855,35 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -3608,35 +3911,35 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -3664,35 +3967,35 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -3720,35 +4023,35 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
@@ -3776,35 +4079,35 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
@@ -3831,92 +4134,80 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>9</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
@@ -3944,7 +4235,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>36</v>
@@ -3952,27 +4243,27 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -3998,8 +4289,456 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>3</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>4</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>5</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>6</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>7</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>8</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>9</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>10</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="245">
+  <mergeCells count="295">
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="B6:G7"/>
     <mergeCell ref="H6:M7"/>
@@ -4075,85 +4814,94 @@
     <mergeCell ref="E26:G27"/>
     <mergeCell ref="H26:J27"/>
     <mergeCell ref="K26:M27"/>
-    <mergeCell ref="A34:S35"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="A32:S33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q38:S39"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:G37"/>
     <mergeCell ref="H36:J37"/>
     <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="N40:P41"/>
+    <mergeCell ref="Q40:S41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="Q42:S43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="E40:G41"/>
     <mergeCell ref="H40:J41"/>
     <mergeCell ref="K40:M41"/>
-    <mergeCell ref="N40:P41"/>
-    <mergeCell ref="Q40:S41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="Q42:S43"/>
+    <mergeCell ref="N44:P45"/>
+    <mergeCell ref="Q44:S45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="K46:M47"/>
+    <mergeCell ref="N46:P47"/>
+    <mergeCell ref="Q46:S47"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:D45"/>
     <mergeCell ref="E44:G45"/>
     <mergeCell ref="H44:J45"/>
     <mergeCell ref="K44:M45"/>
-    <mergeCell ref="N44:P45"/>
-    <mergeCell ref="Q44:S45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:M43"/>
-    <mergeCell ref="N46:P47"/>
-    <mergeCell ref="Q46:S47"/>
+    <mergeCell ref="N48:P49"/>
+    <mergeCell ref="Q48:S49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="H50:J51"/>
+    <mergeCell ref="K50:M51"/>
+    <mergeCell ref="N50:P51"/>
+    <mergeCell ref="Q50:S51"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:D49"/>
     <mergeCell ref="E48:G49"/>
     <mergeCell ref="H48:J49"/>
     <mergeCell ref="K48:M49"/>
-    <mergeCell ref="N48:P49"/>
-    <mergeCell ref="Q48:S49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="K46:M47"/>
-    <mergeCell ref="N50:P51"/>
-    <mergeCell ref="Q50:S51"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q52:S53"/>
+    <mergeCell ref="A54:S55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N56:P57"/>
+    <mergeCell ref="Q56:S57"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:D53"/>
     <mergeCell ref="E52:G53"/>
     <mergeCell ref="H52:J53"/>
     <mergeCell ref="K52:M53"/>
-    <mergeCell ref="N52:P53"/>
-    <mergeCell ref="Q52:S53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="E50:G51"/>
-    <mergeCell ref="H50:J51"/>
-    <mergeCell ref="K50:M51"/>
-    <mergeCell ref="A58:S59"/>
+    <mergeCell ref="N58:P59"/>
+    <mergeCell ref="Q58:S59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:D61"/>
     <mergeCell ref="E60:G61"/>
@@ -4161,20 +4909,11 @@
     <mergeCell ref="K60:M61"/>
     <mergeCell ref="N60:P61"/>
     <mergeCell ref="Q60:S61"/>
-    <mergeCell ref="N54:P55"/>
-    <mergeCell ref="Q54:S55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:G57"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N56:P57"/>
-    <mergeCell ref="Q56:S57"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:D55"/>
-    <mergeCell ref="E54:G55"/>
-    <mergeCell ref="H54:J55"/>
-    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="E58:G59"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="K58:M59"/>
     <mergeCell ref="N62:P63"/>
     <mergeCell ref="Q62:S63"/>
     <mergeCell ref="A64:A65"/>
@@ -4219,40 +4958,90 @@
     <mergeCell ref="K70:M71"/>
     <mergeCell ref="N74:P75"/>
     <mergeCell ref="Q74:S75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:D77"/>
-    <mergeCell ref="E76:G77"/>
-    <mergeCell ref="H76:J77"/>
-    <mergeCell ref="K76:M77"/>
-    <mergeCell ref="N76:P77"/>
-    <mergeCell ref="Q76:S77"/>
+    <mergeCell ref="A76:S77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:D79"/>
+    <mergeCell ref="E78:G79"/>
+    <mergeCell ref="H78:J79"/>
+    <mergeCell ref="K78:M79"/>
+    <mergeCell ref="N78:P79"/>
+    <mergeCell ref="Q78:S79"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:D75"/>
     <mergeCell ref="E74:G75"/>
     <mergeCell ref="H74:J75"/>
     <mergeCell ref="K74:M75"/>
-    <mergeCell ref="N78:P79"/>
-    <mergeCell ref="Q78:S79"/>
+    <mergeCell ref="N80:P81"/>
+    <mergeCell ref="Q80:S81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="E82:G83"/>
+    <mergeCell ref="H82:J83"/>
+    <mergeCell ref="K82:M83"/>
+    <mergeCell ref="N82:P83"/>
+    <mergeCell ref="Q82:S83"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:D81"/>
     <mergeCell ref="E80:G81"/>
     <mergeCell ref="H80:J81"/>
     <mergeCell ref="K80:M81"/>
-    <mergeCell ref="N80:P81"/>
-    <mergeCell ref="Q80:S81"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:D79"/>
-    <mergeCell ref="E78:G79"/>
-    <mergeCell ref="H78:J79"/>
-    <mergeCell ref="K78:M79"/>
+    <mergeCell ref="N84:P85"/>
+    <mergeCell ref="Q84:S85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:D87"/>
+    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="H86:J87"/>
+    <mergeCell ref="K86:M87"/>
+    <mergeCell ref="N86:P87"/>
+    <mergeCell ref="Q86:S87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:D85"/>
+    <mergeCell ref="E84:G85"/>
+    <mergeCell ref="H84:J85"/>
+    <mergeCell ref="K84:M85"/>
+    <mergeCell ref="N88:P89"/>
+    <mergeCell ref="Q88:S89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:D91"/>
+    <mergeCell ref="E90:G91"/>
+    <mergeCell ref="H90:J91"/>
+    <mergeCell ref="K90:M91"/>
+    <mergeCell ref="N90:P91"/>
+    <mergeCell ref="Q90:S91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:D89"/>
+    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="H88:J89"/>
+    <mergeCell ref="K88:M89"/>
+    <mergeCell ref="N96:P97"/>
+    <mergeCell ref="Q96:S97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:D97"/>
+    <mergeCell ref="E96:G97"/>
+    <mergeCell ref="H96:J97"/>
+    <mergeCell ref="K96:M97"/>
+    <mergeCell ref="N92:P93"/>
+    <mergeCell ref="Q92:S93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:D95"/>
+    <mergeCell ref="E94:G95"/>
+    <mergeCell ref="H94:J95"/>
+    <mergeCell ref="K94:M95"/>
+    <mergeCell ref="N94:P95"/>
+    <mergeCell ref="Q94:S95"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:D93"/>
+    <mergeCell ref="E92:G93"/>
+    <mergeCell ref="H92:J93"/>
+    <mergeCell ref="K92:M93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA5FB2-7FFD-4162-8A7A-A99AC87042F9}">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0048E208-685B-4C61-A728-61C730395343}">
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S5"/>
@@ -4261,213 +5050,213 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -4518,32 +5307,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -4574,32 +5363,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -4630,32 +5419,32 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -4686,32 +5475,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -4742,32 +5531,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -4795,7 +5584,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4842,32 +5631,32 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -4898,32 +5687,32 @@
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -4954,32 +5743,32 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -5010,32 +5799,32 @@
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -5066,32 +5855,32 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -5119,7 +5908,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5166,32 +5955,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -5222,32 +6011,32 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -5278,32 +6067,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -5334,32 +6123,32 @@
         <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -5390,32 +6179,32 @@
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -5441,8 +6230,368 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
     </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>2</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>3</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>5</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="155">
+    <mergeCell ref="N54:P55"/>
+    <mergeCell ref="Q54:S55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N56:P57"/>
+    <mergeCell ref="Q56:S57"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="E54:G55"/>
+    <mergeCell ref="H54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N50:P51"/>
+    <mergeCell ref="Q50:S51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="H52:J53"/>
+    <mergeCell ref="K52:M53"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q52:S53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="H50:J51"/>
+    <mergeCell ref="K50:M51"/>
+    <mergeCell ref="A46:S47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="K48:M49"/>
+    <mergeCell ref="N48:P49"/>
+    <mergeCell ref="Q48:S49"/>
     <mergeCell ref="N42:P43"/>
     <mergeCell ref="Q42:S43"/>
     <mergeCell ref="A44:A45"/>
